--- a/návrhy/grafy.xlsx
+++ b/návrhy/grafy.xlsx
@@ -15,7 +15,7 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$51:$O$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$151:$P$181</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Soubor</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>nasa</t>
+  </si>
+  <si>
+    <t>LZ77</t>
   </si>
 </sst>
 </file>
@@ -470,15 +473,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -495,6 +489,15 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -602,10 +605,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -635,7 +634,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -659,21 +658,21 @@
             <c:numRef>
               <c:f>List1!$C$15:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>13422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14516</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>34332</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>13328</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>13337</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>13430</c:v>
                 </c:pt>
               </c:numCache>
@@ -763,7 +762,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -787,24 +786,24 @@
             <c:numRef>
               <c:f>List1!$H$15:$N$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>13267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14371</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>28646</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>13192</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>13181</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="#,##0">
                   <c:v>41162</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="#,##0">
                   <c:v>42452</c:v>
                 </c:pt>
               </c:numCache>
@@ -821,11 +820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="599806312"/>
-        <c:axId val="599806704"/>
+        <c:axId val="358992792"/>
+        <c:axId val="358992400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599806312"/>
+        <c:axId val="358992792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,26 +872,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -931,7 +910,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599806704"/>
+        <c:crossAx val="358992400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -939,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599806704"/>
+        <c:axId val="358992400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,26 +973,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1046,7 +1005,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599806312"/>
+        <c:crossAx val="358992792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,7 +1204,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -1266,21 +1225,21 @@
             <c:numRef>
               <c:f>List1!$B$49:$F$49</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>14602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13630</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>60032</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>12135</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>15969</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>16209</c:v>
                 </c:pt>
               </c:numCache>
@@ -1291,7 +1250,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>dblp.js         78 099 B</c:v>
+            <c:v>dblp.js         78 100 B</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1370,7 +1329,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -1391,21 +1350,21 @@
             <c:numRef>
               <c:f>List1!$G$49:$L$49</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>14114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13595</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>53817</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>12037</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>15453</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="#,##0">
                   <c:v>63461</c:v>
                 </c:pt>
               </c:numCache>
@@ -1422,11 +1381,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="500339256"/>
-        <c:axId val="500342000"/>
+        <c:axId val="358996712"/>
+        <c:axId val="358993184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="500339256"/>
+        <c:axId val="358996712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1491,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500342000"/>
+        <c:crossAx val="358993184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500342000"/>
+        <c:axId val="358993184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1606,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500339256"/>
+        <c:crossAx val="358996712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1846,7 +1805,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -1867,21 +1826,21 @@
             <c:numRef>
               <c:f>List1!$B$83:$F$83</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>76722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63697</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>305718</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>58768</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>104471</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>75751</c:v>
                 </c:pt>
               </c:numCache>
@@ -1892,7 +1851,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>SigmodRecord.js         519 402 B</c:v>
+            <c:v>SigmodRecord.js         519 247 B</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1971,7 +1930,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -1992,21 +1951,21 @@
             <c:numRef>
               <c:f>List1!$G$83:$L$83</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>75656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63880</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>290993</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>55148</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>98041</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="#,##0">
                   <c:v>347552</c:v>
                 </c:pt>
               </c:numCache>
@@ -2023,11 +1982,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="485138544"/>
-        <c:axId val="485135016"/>
+        <c:axId val="358995928"/>
+        <c:axId val="358993968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485138544"/>
+        <c:axId val="358995928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2092,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485135016"/>
+        <c:crossAx val="358993968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2141,7 +2100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485135016"/>
+        <c:axId val="358993968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2207,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485138544"/>
+        <c:crossAx val="358995928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2447,7 +2406,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -2471,21 +2430,21 @@
             <c:numRef>
               <c:f>List1!$B$116:$F$116</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>188236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146341</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>1058949</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>108868</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>239449</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>166172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2509,6 +2468,60 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1791373496962618E-3"/>
+                  <c:y val="5.529157416635435E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="cs-CZ"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.7824814189302219E-2"/>
+                      <c:h val="8.3924736702902486E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2575,7 +2588,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -2599,24 +2612,24 @@
             <c:numRef>
               <c:f>List1!$G$116:$M$116</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>183637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145455</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>987837</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>111355</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>222089</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="#,##0">
                   <c:v>1149405</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="#,##0">
                   <c:v>1329182</c:v>
                 </c:pt>
               </c:numCache>
@@ -2633,11 +2646,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="601340872"/>
-        <c:axId val="601341264"/>
+        <c:axId val="358997104"/>
+        <c:axId val="358995144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601340872"/>
+        <c:axId val="358997104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2756,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601341264"/>
+        <c:crossAx val="358995144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2751,7 +2764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601341264"/>
+        <c:axId val="358995144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,7 +2871,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601340872"/>
+        <c:crossAx val="358997104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2966,7 +2979,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.12681167347412589"/>
           <c:y val="3.4015927891660441E-2"/>
-          <c:w val="0.73857919918876136"/>
+          <c:w val="0.73097565176962109"/>
           <c:h val="0.81688856462130166"/>
         </c:manualLayout>
       </c:layout>
@@ -2978,7 +2991,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>nasa.xml     25 050 318 B</c:v>
+            <c:v>nasa.xml              25 050 304 B</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3057,7 +3070,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -3078,21 +3091,21 @@
             <c:numRef>
               <c:f>List1!$B$150:$F$150</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>2286954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2750752</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>24162444</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>1898188</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>3607206</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>3064921</c:v>
                 </c:pt>
               </c:numCache>
@@ -3103,7 +3116,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>nasa.js         18 665 976 B</c:v>
+            <c:v>nasa.js                  18 665 967 B</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3182,7 +3195,7 @@
                   <c:v>LZMA2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BZip2</c:v>
+                  <c:v>LZ77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>PPMd</c:v>
@@ -3203,21 +3216,21 @@
             <c:numRef>
               <c:f>List1!$G$150:$L$150</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>2249416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2682933</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>18885501</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
                   <c:v>1911629</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>3431535</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="#,##0">
                   <c:v>15727051</c:v>
                 </c:pt>
               </c:numCache>
@@ -3234,11 +3247,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="494115768"/>
-        <c:axId val="494112240"/>
+        <c:axId val="361161376"/>
+        <c:axId val="361160200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="494115768"/>
+        <c:axId val="361161376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3344,7 +3357,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494112240"/>
+        <c:crossAx val="361160200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3352,7 +3365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494112240"/>
+        <c:axId val="361160200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3472,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494115768"/>
+        <c:crossAx val="361161376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3477,9 +3490,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86638092756596974"/>
+          <c:x val="0.86855335702259118"/>
           <c:y val="0.29064756083977888"/>
-          <c:w val="0.11996711661775265"/>
+          <c:w val="0.12431198318020503"/>
           <c:h val="0.29349512620377793"/>
         </c:manualLayout>
       </c:layout>
@@ -3704,46 +3717,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5254,509 +5227,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6390,15 +5860,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>35718</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
+      <xdr:colOff>404812</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6688,14 +6158,14 @@
   <dimension ref="A1:AF184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O80" sqref="A51:O80"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="10" width="9.28515625" customWidth="1"/>
@@ -6706,7 +6176,9 @@
     <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.7109375" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -6723,38 +6195,38 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="23" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="23" t="s">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="25"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="41"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6775,7 +6247,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2"/>
@@ -6786,8 +6258,8 @@
       <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="2"/>
@@ -6798,8 +6270,8 @@
       <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="26" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="23" t="s">
         <v>29</v>
       </c>
       <c r="V2" s="2"/>
@@ -6810,8 +6282,8 @@
       <c r="Y2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="26" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AB2" s="2"/>
@@ -6822,7 +6294,7 @@
       <c r="AE2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="27"/>
+      <c r="AF2" s="24"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6891,7 +6363,7 @@
         <f>$B3/U3</f>
         <v>3.275377407600208</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="36">
         <v>13328</v>
       </c>
       <c r="X3" s="4">
@@ -6987,7 +6459,7 @@
         <f t="shared" ref="T4" si="4">$B4/S4</f>
         <v>7.1090975788701396</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="37">
         <v>12135</v>
       </c>
       <c r="V4" s="4">
@@ -7097,7 +6569,7 @@
         <f t="shared" ref="V5" si="14">$B5/U5</f>
         <v>9.6836751170676578</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="36">
         <v>58768</v>
       </c>
       <c r="X5" s="4">
@@ -7138,14 +6610,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>5043906</v>
+        <v>5043805</v>
       </c>
       <c r="C6" s="12">
         <v>166172</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="0"/>
-        <v>30.353525262980526</v>
+        <v>30.352917459018368</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
@@ -7156,84 +6628,84 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>17.324972950692977</v>
+        <v>17.324626032596562</v>
       </c>
       <c r="K6" s="5">
         <v>188236</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>26.79565014131197</v>
+        <v>26.795113580824072</v>
       </c>
       <c r="M6" s="3">
         <v>262716</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" ref="N6:P6" si="20">$B6/M6</f>
-        <v>19.199081898323666</v>
+        <v>19.19869745276268</v>
       </c>
       <c r="O6" s="12">
         <v>176918</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="20"/>
-        <v>28.509852021840626</v>
+        <v>28.509281135893463</v>
       </c>
       <c r="Q6" s="5">
         <v>146341</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" ref="R6" si="21">$B6/Q6</f>
-        <v>34.466800144867122</v>
+        <v>34.466109976014927</v>
       </c>
       <c r="S6" s="3">
         <v>149199</v>
       </c>
       <c r="T6" s="13">
         <f t="shared" ref="T6" si="22">$B6/S6</f>
-        <v>33.806567068143892</v>
+        <v>33.805890119906969</v>
       </c>
       <c r="U6" s="12">
         <v>155311</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" ref="V6" si="23">$B6/U6</f>
-        <v>32.476167174250378</v>
-      </c>
-      <c r="W6" s="39">
+        <v>32.47551686615887</v>
+      </c>
+      <c r="W6" s="36">
         <v>108868</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" ref="X6" si="24">$B6/W6</f>
-        <v>46.330473601058159</v>
+        <v>46.329545872065253</v>
       </c>
       <c r="Y6" s="3">
         <v>154051</v>
       </c>
       <c r="Z6" s="13">
         <f t="shared" ref="Z6" si="25">$B6/Y6</f>
-        <v>32.741793302218099</v>
+        <v>32.741137675185492</v>
       </c>
       <c r="AA6" s="12">
         <v>317765</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" ref="AB6" si="26">$B6/AA6</f>
-        <v>15.873069721334948</v>
+        <v>15.872751876386637</v>
       </c>
       <c r="AC6" s="5">
         <v>239449</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" ref="AD6" si="27">$B6/AC6</f>
-        <v>21.064635893238226</v>
+        <v>21.064214091518444</v>
       </c>
       <c r="AE6" s="3">
         <v>239449</v>
       </c>
       <c r="AF6" s="13">
         <f t="shared" ref="AF6" si="28">$B6/AE6</f>
-        <v>21.064635893238226</v>
+        <v>21.064214091518444</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -7241,14 +6713,14 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>25050318</v>
+        <v>25050304</v>
       </c>
       <c r="C7" s="12">
         <v>3064921</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>8.1732344814107769</v>
+        <v>8.1732299135932056</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -7259,84 +6731,84 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>7.0031895559027753</v>
+        <v>7.003185641994226</v>
       </c>
       <c r="K7" s="5">
         <v>2286954</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>10.953573180746092</v>
+        <v>10.953567059066339</v>
       </c>
       <c r="M7" s="3">
         <v>2573593</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" ref="N7:P7" si="29">$B7/M7</f>
-        <v>9.7335973481432383</v>
+        <v>9.7335919082776492</v>
       </c>
       <c r="O7" s="12">
         <v>3662882</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="29"/>
-        <v>6.8389639633490784</v>
+        <v>6.8389601412221301</v>
       </c>
       <c r="Q7" s="5">
         <v>2750752</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" ref="R7" si="30">$B7/Q7</f>
-        <v>9.1067162724956674</v>
+        <v>9.1067111829783283</v>
       </c>
       <c r="S7" s="3">
         <v>2933331</v>
       </c>
       <c r="T7" s="13">
         <f t="shared" ref="T7" si="31">$B7/S7</f>
-        <v>8.5398879294563077</v>
+        <v>8.5398831567252387</v>
       </c>
       <c r="U7" s="12">
         <v>3221036</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" ref="V7" si="32">$B7/U7</f>
-        <v>7.7770996660701712</v>
-      </c>
-      <c r="W7" s="39">
+        <v>7.7770953196425001</v>
+      </c>
+      <c r="W7" s="36">
         <v>1898188</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" ref="X7" si="33">$B7/W7</f>
-        <v>13.196963630578214</v>
+        <v>13.196956255123307</v>
       </c>
       <c r="Y7" s="3">
         <v>2602465</v>
       </c>
       <c r="Z7" s="13">
         <f t="shared" ref="Z7" si="34">$B7/Y7</f>
-        <v>9.6256118718215227</v>
+        <v>9.625606492306332</v>
       </c>
       <c r="AA7" s="12">
         <v>3991739</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" ref="AB7" si="35">$B7/AA7</f>
-        <v>6.2755400591070707</v>
+        <v>6.2755365518637367</v>
       </c>
       <c r="AC7" s="5">
         <v>3607206</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" ref="AD7" si="36">$B7/AC7</f>
-        <v>6.9445210503641874</v>
+        <v>6.9445171692440075</v>
       </c>
       <c r="AE7" s="3">
         <v>3607206</v>
       </c>
       <c r="AF7" s="13">
         <f t="shared" ref="AF7" si="37">$B7/AE7</f>
-        <v>6.9445210503641874</v>
+        <v>6.9445171692440075</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -7432,7 +6904,7 @@
         <f t="shared" ref="AB8" si="44">$B8/AA8</f>
         <v>3.2483758875963136</v>
       </c>
-      <c r="AC8" s="39">
+      <c r="AC8" s="36">
         <v>13181</v>
       </c>
       <c r="AD8" s="4">
@@ -7452,7 +6924,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>78099</v>
+        <v>78100</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
@@ -7463,91 +6935,91 @@
       </c>
       <c r="H9" s="21">
         <f t="shared" ref="H9:H12" si="47">$B9/G9</f>
-        <v>1.2306613510660089</v>
+        <v>1.2306771087754684</v>
       </c>
       <c r="I9" s="12">
         <v>15523</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
-        <v>5.031179540037364</v>
+        <v>5.0312439605746313</v>
       </c>
       <c r="K9" s="5">
         <v>14114</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>5.5334419725095652</v>
+        <v>5.5335128241462375</v>
       </c>
       <c r="M9" s="3">
         <v>14276</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" ref="N9:P9" si="48">$B9/M9</f>
-        <v>5.4706500420285797</v>
+        <v>5.4707200896609693</v>
       </c>
       <c r="O9" s="12">
         <v>13595</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="48"/>
-        <v>5.744685546156675</v>
+        <v>5.7447591026112539</v>
       </c>
       <c r="Q9" s="5">
         <v>13595</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" ref="R9" si="49">$B9/Q9</f>
-        <v>5.744685546156675</v>
+        <v>5.7447591026112539</v>
       </c>
       <c r="S9" s="3">
         <v>13595</v>
       </c>
       <c r="T9" s="13">
         <f t="shared" ref="T9" si="50">$B9/S9</f>
-        <v>5.744685546156675</v>
-      </c>
-      <c r="U9" s="40">
+        <v>5.7447591026112539</v>
+      </c>
+      <c r="U9" s="37">
         <v>12037</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" ref="V9" si="51">$B9/U9</f>
-        <v>6.4882445792140899</v>
+        <v>6.488327656392789</v>
       </c>
       <c r="W9" s="3">
         <v>12610</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" ref="X9" si="52">$B9/W9</f>
-        <v>6.1934179222839019</v>
+        <v>6.1934972244250597</v>
       </c>
       <c r="Y9" s="3">
         <v>12037</v>
       </c>
       <c r="Z9" s="13">
         <f t="shared" ref="Z9" si="53">$B9/Y9</f>
-        <v>6.4882445792140899</v>
+        <v>6.488327656392789</v>
       </c>
       <c r="AA9" s="12">
         <v>16717</v>
       </c>
       <c r="AB9" s="4">
         <f t="shared" ref="AB9" si="54">$B9/AA9</f>
-        <v>4.6718310701680927</v>
+        <v>4.6718908895136684</v>
       </c>
       <c r="AC9" s="3">
         <v>15463</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" ref="AD9" si="55">$B9/AC9</f>
-        <v>5.0507016749660476</v>
+        <v>5.0507663454698308</v>
       </c>
       <c r="AE9" s="5">
         <v>15453</v>
       </c>
       <c r="AF9" s="13">
         <f t="shared" ref="AF9" si="56">$B9/AE9</f>
-        <v>5.0539701028926425</v>
+        <v>5.0540348152462302</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -7555,7 +7027,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>519402</v>
+        <v>519247</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
@@ -7566,91 +7038,91 @@
       </c>
       <c r="H10" s="21">
         <f t="shared" si="47"/>
-        <v>1.4944583832059664</v>
+        <v>1.4940124067765399</v>
       </c>
       <c r="I10" s="12">
         <v>98893</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>5.2521614269968548</v>
+        <v>5.2505940764260366</v>
       </c>
       <c r="K10" s="5">
         <v>75656</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>6.8653114095379086</v>
+        <v>6.8632626625779842</v>
       </c>
       <c r="M10" s="3">
         <v>80320</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" ref="N10:P10" si="57">$B10/M10</f>
-        <v>6.4666583665338644</v>
+        <v>6.4647285856573706</v>
       </c>
       <c r="O10" s="12">
         <v>82058</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="57"/>
-        <v>6.3296936313339343</v>
+        <v>6.3278047234882644</v>
       </c>
       <c r="Q10" s="5">
         <v>63880</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" ref="R10" si="58">$B10/Q10</f>
-        <v>8.1309016906700062</v>
+        <v>8.1284752661239832</v>
       </c>
       <c r="S10" s="3">
         <v>65155</v>
       </c>
       <c r="T10" s="13">
         <f t="shared" ref="T10" si="59">$B10/S10</f>
-        <v>7.9717903460977668</v>
+        <v>7.9694114035760881</v>
       </c>
       <c r="U10" s="12">
         <v>67311</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" ref="V10" si="60">$B10/U10</f>
-        <v>7.7164505058608546</v>
+        <v>7.7141477618814163</v>
       </c>
       <c r="W10" s="3">
         <v>63944</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" ref="X10" si="61">$B10/W10</f>
-        <v>8.122763668209684</v>
-      </c>
-      <c r="Y10" s="39">
+        <v>8.120339672213186</v>
+      </c>
+      <c r="Y10" s="36">
         <v>55148</v>
       </c>
       <c r="Z10" s="13">
         <f t="shared" ref="Z10" si="62">$B10/Y10</f>
-        <v>9.4183288605207807</v>
+        <v>9.4155182418220065</v>
       </c>
       <c r="AA10" s="12">
         <v>111269</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" ref="AB10" si="63">$B10/AA10</f>
-        <v>4.6679847936082828</v>
+        <v>4.6665917730904383</v>
       </c>
       <c r="AC10" s="3">
         <v>98046</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" ref="AD10" si="64">$B10/AC10</f>
-        <v>5.297533810660302</v>
+        <v>5.2959529200579318</v>
       </c>
       <c r="AE10" s="5">
         <v>98041</v>
       </c>
       <c r="AF10" s="13">
         <f t="shared" ref="AF10" si="65">$B10/AE10</f>
-        <v>5.2978039799675649</v>
+        <v>5.296223008741241</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -7658,7 +7130,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>3186447</v>
+        <v>3186349</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
@@ -7667,98 +7139,98 @@
       </c>
       <c r="F11" s="13">
         <f>$B11/E11</f>
-        <v>2.772257820350529</v>
+        <v>2.7721725588456638</v>
       </c>
       <c r="G11" s="12">
         <v>1329182</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="47"/>
-        <v>2.397299241187437</v>
+        <v>2.3972255116304613</v>
       </c>
       <c r="I11" s="12">
         <v>279898</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>11.384315000464454</v>
+        <v>11.383964872917991</v>
       </c>
       <c r="K11" s="5">
         <v>183637</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>17.351878978637203</v>
+        <v>17.351345317120188</v>
       </c>
       <c r="M11" s="3">
         <v>237199</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" ref="N11:P11" si="66">$B11/M11</f>
-        <v>13.433644323964266</v>
+        <v>13.433231168765467</v>
       </c>
       <c r="O11" s="12">
         <v>163015</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="66"/>
-        <v>19.546955801613347</v>
+        <v>19.54635462994203</v>
       </c>
       <c r="Q11" s="5">
         <v>145455</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" ref="R11" si="67">$B11/Q11</f>
-        <v>21.906754666391667</v>
+        <v>21.906080918497128</v>
       </c>
       <c r="S11" s="3">
         <v>147298</v>
       </c>
       <c r="T11" s="13">
         <f t="shared" ref="T11" si="68">$B11/S11</f>
-        <v>21.632656247878451</v>
+        <v>21.631990929951527</v>
       </c>
       <c r="U11" s="12">
         <v>114946</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" ref="V11" si="69">$B11/U11</f>
-        <v>27.721251718198111</v>
-      </c>
-      <c r="W11" s="39">
+        <v>27.720399143945851</v>
+      </c>
+      <c r="W11" s="36">
         <v>111355</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" ref="X11" si="70">$B11/W11</f>
-        <v>28.615212608324729</v>
+        <v>28.614332540074535</v>
       </c>
       <c r="Y11" s="3">
         <v>113692</v>
       </c>
       <c r="Z11" s="13">
         <f t="shared" ref="Z11" si="71">$B11/Y11</f>
-        <v>28.027011575132814</v>
+        <v>28.026149597157232</v>
       </c>
       <c r="AA11" s="12">
         <v>302504</v>
       </c>
       <c r="AB11" s="4">
         <f t="shared" ref="AB11" si="72">$B11/AA11</f>
-        <v>10.533569804035649</v>
+        <v>10.533245841377305</v>
       </c>
       <c r="AC11" s="3">
         <v>222098</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" ref="AD11" si="73">$B11/AC11</f>
-        <v>14.347031490603246</v>
+        <v>14.346590243946366</v>
       </c>
       <c r="AE11" s="5">
         <v>222089</v>
       </c>
       <c r="AF11" s="13">
         <f t="shared" ref="AF11" si="74">$B11/AE11</f>
-        <v>14.347612893929911</v>
+        <v>14.34717162939182</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7766,7 +7238,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9">
-        <v>18665976</v>
+        <v>18665967</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -7777,122 +7249,122 @@
       </c>
       <c r="H12" s="22">
         <f t="shared" si="47"/>
-        <v>1.1868706981366055</v>
+        <v>1.1868701258742023</v>
       </c>
       <c r="I12" s="15">
         <v>3347927</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="25">
         <f t="shared" si="1"/>
-        <v>5.5753832147475135</v>
-      </c>
-      <c r="K12" s="30">
+        <v>5.5753805265168568</v>
+      </c>
+      <c r="K12" s="27">
         <v>2249416</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="25">
         <f t="shared" si="1"/>
-        <v>8.2981431624919537</v>
-      </c>
-      <c r="M12" s="29">
+        <v>8.2981391614534612</v>
+      </c>
+      <c r="M12" s="26">
         <v>2429997</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" ref="N12:P12" si="75">$B12/M12</f>
-        <v>7.6814810882482574</v>
+        <v>7.6814773845399813</v>
       </c>
       <c r="O12" s="15">
         <v>3455621</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="25">
         <f t="shared" si="75"/>
-        <v>5.4016270881557906</v>
-      </c>
-      <c r="Q12" s="30">
+        <v>5.4016244837035083</v>
+      </c>
+      <c r="Q12" s="27">
         <v>2682933</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="25">
         <f t="shared" ref="R12" si="76">$B12/Q12</f>
-        <v>6.9573023254773787</v>
-      </c>
-      <c r="S12" s="29">
+        <v>6.9572989709396396</v>
+      </c>
+      <c r="S12" s="26">
         <v>2835952</v>
       </c>
       <c r="T12" s="17">
         <f t="shared" ref="T12" si="77">$B12/S12</f>
-        <v>6.5819082974606058</v>
+        <v>6.5819051239231126</v>
       </c>
       <c r="U12" s="15">
         <v>2960135</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="25">
         <f t="shared" ref="V12" si="78">$B12/U12</f>
-        <v>6.3057853780317448</v>
-      </c>
-      <c r="W12" s="41">
+        <v>6.3057823376298714</v>
+      </c>
+      <c r="W12" s="38">
         <v>1911629</v>
       </c>
-      <c r="X12" s="28">
+      <c r="X12" s="25">
         <f t="shared" ref="X12" si="79">$B12/W12</f>
-        <v>9.7644344169292268</v>
-      </c>
-      <c r="Y12" s="29">
+        <v>9.7644297089027212</v>
+      </c>
+      <c r="Y12" s="26">
         <v>2363898</v>
       </c>
       <c r="Z12" s="17">
         <f t="shared" ref="Z12" si="80">$B12/Y12</f>
-        <v>7.8962696359995226</v>
+        <v>7.8962658287286507</v>
       </c>
       <c r="AA12" s="15">
         <v>3696826</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="25">
         <f t="shared" ref="AB12" si="81">$B12/AA12</f>
-        <v>5.0491897644087116</v>
-      </c>
-      <c r="AC12" s="30">
+        <v>5.0491873298878556</v>
+      </c>
+      <c r="AC12" s="27">
         <v>3431535</v>
       </c>
-      <c r="AD12" s="28">
+      <c r="AD12" s="25">
         <f t="shared" ref="AD12" si="82">$B12/AC12</f>
-        <v>5.4395411965782081</v>
-      </c>
-      <c r="AE12" s="29">
+        <v>5.4395385738452324</v>
+      </c>
+      <c r="AE12" s="26">
         <v>3434535</v>
       </c>
       <c r="AF12" s="17">
         <f t="shared" ref="AF12" si="83">$B12/AE12</f>
-        <v>5.4347898623831172</v>
+        <v>5.4347872419410486</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="29" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="35" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
@@ -7903,26 +7375,26 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C15" s="34">
+      <c r="C15" s="31">
         <v>13422</v>
       </c>
-      <c r="D15" s="34">
-        <v>14516</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15">
+        <v>34332</v>
+      </c>
+      <c r="E15" s="31">
         <v>13328</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>13337</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="30">
         <v>13430</v>
       </c>
       <c r="H15" s="5">
         <v>13267</v>
       </c>
-      <c r="I15" s="5">
-        <v>14371</v>
+      <c r="I15">
+        <v>28646</v>
       </c>
       <c r="J15" s="5">
         <v>13192</v>
@@ -7937,61 +7409,187 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>34332</v>
+      </c>
+      <c r="U18">
+        <f>$B3/T18</f>
+        <v>1.2828847722241641</v>
+      </c>
+    </row>
+    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>60032</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U27" si="84">$B4/T19</f>
+        <v>1.6140891524520256</v>
+      </c>
+    </row>
+    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>305718</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="84"/>
+        <v>2.3539732694836419</v>
+      </c>
+    </row>
+    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>1058949</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="84"/>
+        <v>4.7630291921518415</v>
+      </c>
+    </row>
+    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>24162444</v>
+      </c>
+      <c r="U22">
+        <f>$B7/T27</f>
+        <v>1.3264304717147828</v>
+      </c>
+    </row>
+    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>28646</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="84"/>
+        <v>1.5011519932974935</v>
+      </c>
+    </row>
+    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>53817</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="84"/>
+        <v>1.4512143003140272</v>
+      </c>
+    </row>
+    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>290993</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="84"/>
+        <v>1.7843968755262154</v>
+      </c>
+    </row>
+    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26">
+        <v>987837</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="84"/>
+        <v>3.2255817508354112</v>
+      </c>
+    </row>
+    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="R27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>18885501</v>
+      </c>
+      <c r="U27">
+        <f>$B12/T22</f>
+        <v>0.77251982456741541</v>
+      </c>
+    </row>
+    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="32" t="s">
+      <c r="C48" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="29" t="s">
         <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J48" s="35" t="s">
         <v>34</v>
       </c>
       <c r="L48" t="s">
@@ -8002,10 +7600,10 @@
       <c r="B49" s="5">
         <v>14602</v>
       </c>
-      <c r="C49" s="5">
-        <v>13630</v>
-      </c>
-      <c r="D49" s="31">
+      <c r="C49">
+        <v>60032</v>
+      </c>
+      <c r="D49" s="28">
         <v>12135</v>
       </c>
       <c r="E49" s="5">
@@ -8017,10 +7615,10 @@
       <c r="G49" s="5">
         <v>14114</v>
       </c>
-      <c r="H49" s="5">
-        <v>13595</v>
-      </c>
-      <c r="I49" s="31">
+      <c r="H49">
+        <v>53817</v>
+      </c>
+      <c r="I49" s="28">
         <v>12037</v>
       </c>
       <c r="J49" s="5">
@@ -8034,31 +7632,31 @@
       <c r="A82" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="32" t="s">
+      <c r="C82" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="29" t="s">
         <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I82" t="s">
         <v>24</v>
       </c>
-      <c r="J82" s="38" t="s">
+      <c r="J82" s="35" t="s">
         <v>34</v>
       </c>
       <c r="L82" t="s">
@@ -8069,10 +7667,10 @@
       <c r="B83" s="5">
         <v>76722</v>
       </c>
-      <c r="C83" s="5">
-        <v>63697</v>
-      </c>
-      <c r="D83" s="39">
+      <c r="C83">
+        <v>305718</v>
+      </c>
+      <c r="D83" s="36">
         <v>58768</v>
       </c>
       <c r="E83" s="5">
@@ -8084,10 +7682,10 @@
       <c r="G83" s="5">
         <v>75656</v>
       </c>
-      <c r="H83" s="5">
-        <v>63880</v>
-      </c>
-      <c r="I83" s="39">
+      <c r="H83">
+        <v>290993</v>
+      </c>
+      <c r="I83" s="36">
         <v>55148</v>
       </c>
       <c r="J83" s="5">
@@ -8101,31 +7699,31 @@
       <c r="A115" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="32" t="s">
+      <c r="C115" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F115" s="32" t="s">
+      <c r="F115" s="29" t="s">
         <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I115" t="s">
         <v>24</v>
       </c>
-      <c r="J115" s="38" t="s">
+      <c r="J115" s="35" t="s">
         <v>34</v>
       </c>
       <c r="L115" t="s">
@@ -8139,10 +7737,10 @@
       <c r="B116" s="5">
         <v>188236</v>
       </c>
-      <c r="C116" s="5">
-        <v>146341</v>
-      </c>
-      <c r="D116" s="39">
+      <c r="C116">
+        <v>1058949</v>
+      </c>
+      <c r="D116" s="36">
         <v>108868</v>
       </c>
       <c r="E116" s="5">
@@ -8154,10 +7752,10 @@
       <c r="G116" s="5">
         <v>183637</v>
       </c>
-      <c r="H116" s="5">
-        <v>145455</v>
-      </c>
-      <c r="I116" s="39">
+      <c r="H116">
+        <v>987837</v>
+      </c>
+      <c r="I116" s="36">
         <v>111355</v>
       </c>
       <c r="J116" s="5">
@@ -8174,31 +7772,31 @@
       <c r="A149" t="s">
         <v>38</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="32" t="s">
+      <c r="C149" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E149" s="32" t="s">
+      <c r="E149" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F149" s="32" t="s">
+      <c r="F149" s="29" t="s">
         <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I149" t="s">
         <v>24</v>
       </c>
-      <c r="J149" s="38" t="s">
+      <c r="J149" s="35" t="s">
         <v>34</v>
       </c>
       <c r="L149" t="s">
@@ -8209,10 +7807,10 @@
       <c r="B150" s="5">
         <v>2286954</v>
       </c>
-      <c r="C150" s="5">
-        <v>2750752</v>
-      </c>
-      <c r="D150" s="39">
+      <c r="C150">
+        <v>24162444</v>
+      </c>
+      <c r="D150" s="36">
         <v>1898188</v>
       </c>
       <c r="E150" s="5">
@@ -8221,16 +7819,16 @@
       <c r="F150" s="12">
         <v>3064921</v>
       </c>
-      <c r="G150" s="30">
+      <c r="G150" s="27">
         <v>2249416</v>
       </c>
-      <c r="H150" s="30">
-        <v>2682933</v>
-      </c>
-      <c r="I150" s="41">
+      <c r="H150">
+        <v>18885501</v>
+      </c>
+      <c r="I150" s="38">
         <v>1911629</v>
       </c>
-      <c r="J150" s="30">
+      <c r="J150" s="27">
         <v>3431535</v>
       </c>
       <c r="L150" s="15">
@@ -8239,14 +7837,10 @@
       <c r="M150" s="12"/>
     </row>
     <row r="183" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K183" s="1">
-        <v>25050318</v>
-      </c>
+      <c r="K183" s="1"/>
     </row>
     <row r="184" spans="11:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L184" s="9">
-        <v>18665976</v>
-      </c>
+      <c r="L184" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
